--- a/Copy of TUS Linkage File - 8.21-2.xlsx
+++ b/Copy of TUS Linkage File - 8.21-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cportes\Projects\EnQubes\jira-selenium-poc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A49F16-9832-4BEB-8063-82D4EE59EC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF50930-2895-4969-94FC-A9228E53534F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CAD0554C-4CC0-4E1B-9FBB-24172DF943C8}"/>
   </bookViews>
@@ -9821,7 +9821,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B5C44C-2650-4128-8BE4-940306CD319B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E1051"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9849,7 +9848,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://jira.jnj.com/browse/",C2),"LINK")</f>
         <v>LINK</v>
@@ -9864,7 +9863,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:A66" si="0">HYPERLINK(_xlfn.CONCAT("https://jira.jnj.com/browse/",C3),"LINK")</f>
         <v>LINK</v>
@@ -9969,7 +9968,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10074,7 +10073,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10143,7 +10142,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10194,7 +10193,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10227,7 +10226,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10278,7 +10277,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10293,7 +10292,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10308,7 +10307,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10323,7 +10322,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10428,7 +10427,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10443,7 +10442,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10476,7 +10475,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10563,7 +10562,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10578,7 +10577,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10647,7 +10646,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10680,7 +10679,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10731,7 +10730,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10764,7 +10763,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10815,7 +10814,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10866,7 +10865,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10881,7 +10880,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10932,7 +10931,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LINK</v>
@@ -10965,7 +10964,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -10980,7 +10979,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -10995,7 +10994,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11010,7 +11009,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11025,7 +11024,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11040,7 +11039,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11055,7 +11054,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11070,7 +11069,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11085,7 +11084,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11100,7 +11099,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11115,7 +11114,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11130,7 +11129,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11145,7 +11144,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11160,7 +11159,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11175,7 +11174,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11190,7 +11189,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11205,7 +11204,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11220,7 +11219,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11235,7 +11234,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11268,7 +11267,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11301,7 +11300,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11316,7 +11315,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11349,7 +11348,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11364,7 +11363,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11415,7 +11414,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11430,7 +11429,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11715,7 +11714,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11856,7 +11855,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -11871,7 +11870,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LINK</v>
@@ -12012,7 +12011,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="str">
         <f t="shared" ref="A131:A194" si="2">HYPERLINK(_xlfn.CONCAT("https://jira.jnj.com/browse/",C131),"LINK")</f>
         <v>LINK</v>
@@ -12027,7 +12026,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12060,7 +12059,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12075,7 +12074,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12108,7 +12107,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12123,7 +12122,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12138,7 +12137,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12153,7 +12152,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12168,7 +12167,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12183,7 +12182,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12216,7 +12215,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12231,7 +12230,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12372,7 +12371,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12405,7 +12404,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12420,7 +12419,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12435,7 +12434,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12450,7 +12449,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12465,7 +12464,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12480,7 +12479,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12495,7 +12494,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12564,7 +12563,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12579,7 +12578,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12594,7 +12593,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12609,7 +12608,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12624,7 +12623,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12639,7 +12638,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12654,7 +12653,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -12687,7 +12686,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="str">
         <f t="shared" si="2"/>
         <v>LINK</v>
@@ -13224,7 +13223,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LINK</v>
@@ -13275,7 +13274,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LINK</v>
@@ -13308,7 +13307,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LINK</v>
@@ -13449,7 +13448,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LINK</v>
@@ -13482,7 +13481,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LINK</v>
@@ -13533,7 +13532,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LINK</v>
@@ -13548,7 +13547,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LINK</v>
@@ -16173,7 +16172,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16188,7 +16187,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16203,7 +16202,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16219,7 +16218,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16234,7 +16233,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16249,7 +16248,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16264,7 +16263,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16279,7 +16278,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16294,7 +16293,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16309,7 +16308,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16324,7 +16323,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16339,7 +16338,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16354,7 +16353,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16369,7 +16368,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16384,7 +16383,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16399,7 +16398,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16414,7 +16413,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16429,7 +16428,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16444,7 +16443,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LINK</v>
@@ -16459,7 +16458,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="str">
         <f t="shared" ref="A387:A450" si="6">HYPERLINK(_xlfn.CONCAT("https://jira.jnj.com/browse/",C387),"LINK")</f>
         <v>LINK</v>
@@ -16474,7 +16473,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16489,7 +16488,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16504,7 +16503,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16519,7 +16518,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16534,7 +16533,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16549,7 +16548,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16564,7 +16563,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16579,7 +16578,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16594,7 +16593,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16609,7 +16608,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16624,7 +16623,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16639,7 +16638,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16654,7 +16653,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16669,7 +16668,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16684,7 +16683,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16699,7 +16698,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16714,7 +16713,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16729,7 +16728,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16744,7 +16743,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16759,7 +16758,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16774,7 +16773,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16789,7 +16788,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16804,7 +16803,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16819,7 +16818,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16834,7 +16833,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16849,7 +16848,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16864,7 +16863,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16879,7 +16878,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16894,7 +16893,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16909,7 +16908,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16924,7 +16923,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16939,7 +16938,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16954,7 +16953,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16969,7 +16968,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16984,7 +16983,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -16999,7 +16998,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17014,7 +17013,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17029,7 +17028,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17044,7 +17043,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17059,7 +17058,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17074,7 +17073,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17089,7 +17088,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17104,7 +17103,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17119,7 +17118,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17134,7 +17133,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17149,7 +17148,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17164,7 +17163,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17179,7 +17178,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17194,7 +17193,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17209,7 +17208,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17224,7 +17223,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17239,7 +17238,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17254,7 +17253,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17269,7 +17268,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17284,7 +17283,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17299,7 +17298,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17314,7 +17313,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17329,7 +17328,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17344,7 +17343,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17359,7 +17358,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17374,7 +17373,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17389,7 +17388,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17404,7 +17403,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LINK</v>
@@ -17419,7 +17418,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="str">
         <f t="shared" ref="A451:A514" si="7">HYPERLINK(_xlfn.CONCAT("https://jira.jnj.com/browse/",C451),"LINK")</f>
         <v>LINK</v>
@@ -17434,7 +17433,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17449,7 +17448,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17464,7 +17463,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17479,7 +17478,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17494,7 +17493,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17509,7 +17508,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17524,7 +17523,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17539,7 +17538,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17554,7 +17553,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17569,7 +17568,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17584,7 +17583,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17599,7 +17598,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17614,7 +17613,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17629,7 +17628,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17644,7 +17643,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17659,7 +17658,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17674,7 +17673,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17689,7 +17688,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17704,7 +17703,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17719,7 +17718,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17734,7 +17733,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17749,7 +17748,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17764,7 +17763,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17779,7 +17778,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17794,7 +17793,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17809,7 +17808,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17824,7 +17823,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17839,7 +17838,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17854,7 +17853,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17869,7 +17868,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17884,7 +17883,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17899,7 +17898,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17914,7 +17913,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17929,7 +17928,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17944,7 +17943,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17959,7 +17958,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17974,7 +17973,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -17989,7 +17988,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18004,7 +18003,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18019,7 +18018,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18034,7 +18033,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18049,7 +18048,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18064,7 +18063,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18079,7 +18078,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18094,7 +18093,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18109,7 +18108,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18124,7 +18123,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18139,7 +18138,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18154,7 +18153,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18169,7 +18168,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18184,7 +18183,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18199,7 +18198,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18214,7 +18213,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18229,7 +18228,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18244,7 +18243,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18259,7 +18258,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18274,7 +18273,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18289,7 +18288,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18304,7 +18303,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18319,7 +18318,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18334,7 +18333,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18349,7 +18348,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18364,7 +18363,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LINK</v>
@@ -18379,7 +18378,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="str">
         <f t="shared" ref="A515:A578" si="8">HYPERLINK(_xlfn.CONCAT("https://jira.jnj.com/browse/",C515),"LINK")</f>
         <v>LINK</v>
@@ -18394,7 +18393,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18409,7 +18408,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18424,7 +18423,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18439,7 +18438,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18454,7 +18453,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18469,7 +18468,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18484,7 +18483,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18499,7 +18498,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18514,7 +18513,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18529,7 +18528,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18544,7 +18543,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18559,7 +18558,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18574,7 +18573,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18589,7 +18588,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18604,7 +18603,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18619,7 +18618,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18634,7 +18633,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18649,7 +18648,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18664,7 +18663,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18679,7 +18678,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18694,7 +18693,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18709,7 +18708,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18724,7 +18723,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18739,7 +18738,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18754,7 +18753,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18769,7 +18768,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18784,7 +18783,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18799,7 +18798,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18814,7 +18813,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18829,7 +18828,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18844,7 +18843,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18859,7 +18858,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18874,7 +18873,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18889,7 +18888,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18904,7 +18903,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18919,7 +18918,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18934,7 +18933,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18949,7 +18948,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18964,7 +18963,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18979,7 +18978,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -18994,7 +18993,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19009,7 +19008,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19024,7 +19023,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19039,7 +19038,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19054,7 +19053,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19069,7 +19068,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19084,7 +19083,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19099,7 +19098,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19114,7 +19113,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19129,7 +19128,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19144,7 +19143,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19159,7 +19158,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19174,7 +19173,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19189,7 +19188,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19204,7 +19203,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19219,7 +19218,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19234,7 +19233,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19249,7 +19248,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19264,7 +19263,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19279,7 +19278,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19294,7 +19293,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19309,7 +19308,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19324,7 +19323,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LINK</v>
@@ -19339,7 +19338,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="str">
         <f t="shared" ref="A579:A642" si="9">HYPERLINK(_xlfn.CONCAT("https://jira.jnj.com/browse/",C579),"LINK")</f>
         <v>LINK</v>
@@ -19354,7 +19353,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19369,7 +19368,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19384,7 +19383,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19399,7 +19398,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19414,7 +19413,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19429,7 +19428,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19444,7 +19443,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19459,7 +19458,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19474,7 +19473,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19489,7 +19488,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19504,7 +19503,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19519,7 +19518,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19534,7 +19533,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19549,7 +19548,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19564,7 +19563,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19579,7 +19578,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19594,7 +19593,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19609,7 +19608,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19624,7 +19623,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19639,7 +19638,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19654,7 +19653,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19669,7 +19668,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19684,7 +19683,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19699,7 +19698,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19714,7 +19713,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19729,7 +19728,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19744,7 +19743,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19759,7 +19758,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19774,7 +19773,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19789,7 +19788,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19804,7 +19803,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19819,7 +19818,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19834,7 +19833,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19849,7 +19848,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19864,7 +19863,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19879,7 +19878,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19894,7 +19893,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19909,7 +19908,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19924,7 +19923,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19939,7 +19938,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19954,7 +19953,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19969,7 +19968,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19984,7 +19983,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -19999,7 +19998,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20014,7 +20013,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20029,7 +20028,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20044,7 +20043,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20059,7 +20058,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20074,7 +20073,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20089,7 +20088,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20104,7 +20103,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20119,7 +20118,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20134,7 +20133,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20149,7 +20148,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20164,7 +20163,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20179,7 +20178,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20194,7 +20193,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20209,7 +20208,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20224,7 +20223,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20239,7 +20238,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20254,7 +20253,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20269,7 +20268,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20284,7 +20283,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="str">
         <f t="shared" si="9"/>
         <v>LINK</v>
@@ -20299,7 +20298,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="str">
         <f t="shared" ref="A643:A706" si="10">HYPERLINK(_xlfn.CONCAT("https://jira.jnj.com/browse/",C643),"LINK")</f>
         <v>LINK</v>
@@ -20314,7 +20313,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20329,7 +20328,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20344,7 +20343,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20359,7 +20358,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20374,7 +20373,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20389,7 +20388,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20404,7 +20403,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20419,7 +20418,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20434,7 +20433,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20449,7 +20448,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20464,7 +20463,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20479,7 +20478,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20494,7 +20493,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20509,7 +20508,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20524,7 +20523,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20539,7 +20538,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20554,7 +20553,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20569,7 +20568,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20584,7 +20583,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20599,7 +20598,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20614,7 +20613,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20629,7 +20628,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20644,7 +20643,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20659,7 +20658,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20674,7 +20673,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20689,7 +20688,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20704,7 +20703,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20719,7 +20718,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20734,7 +20733,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20749,7 +20748,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20764,7 +20763,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20779,7 +20778,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20794,7 +20793,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20809,7 +20808,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20824,7 +20823,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20839,7 +20838,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20854,7 +20853,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20869,7 +20868,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20884,7 +20883,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20899,7 +20898,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20914,7 +20913,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20929,7 +20928,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20944,7 +20943,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20959,7 +20958,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20974,7 +20973,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -20989,7 +20988,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21004,7 +21003,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21019,7 +21018,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21034,7 +21033,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21049,7 +21048,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21064,7 +21063,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21079,7 +21078,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21094,7 +21093,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21109,7 +21108,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21124,7 +21123,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21139,7 +21138,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21154,7 +21153,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21169,7 +21168,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21184,7 +21183,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21199,7 +21198,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21214,7 +21213,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21229,7 +21228,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21244,7 +21243,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LINK</v>
@@ -21259,7 +21258,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="str">
         <f t="shared" ref="A707:A770" si="11">HYPERLINK(_xlfn.CONCAT("https://jira.jnj.com/browse/",C707),"LINK")</f>
         <v>LINK</v>
@@ -21274,7 +21273,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21289,7 +21288,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21304,7 +21303,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21319,7 +21318,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21334,7 +21333,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21349,7 +21348,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21364,7 +21363,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21379,7 +21378,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21394,7 +21393,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21409,7 +21408,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21424,7 +21423,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21439,7 +21438,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21454,7 +21453,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21469,7 +21468,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21484,7 +21483,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21499,7 +21498,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21514,7 +21513,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21529,7 +21528,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21544,7 +21543,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21559,7 +21558,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21574,7 +21573,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21589,7 +21588,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21604,7 +21603,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21619,7 +21618,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21634,7 +21633,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21649,7 +21648,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21664,7 +21663,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21679,7 +21678,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21694,7 +21693,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21709,7 +21708,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21724,7 +21723,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21739,7 +21738,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21754,7 +21753,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21769,7 +21768,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21784,7 +21783,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21799,7 +21798,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21814,7 +21813,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21829,7 +21828,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21844,7 +21843,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21859,7 +21858,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21874,7 +21873,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21889,7 +21888,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21904,7 +21903,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21919,7 +21918,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21934,7 +21933,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21949,7 +21948,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21964,7 +21963,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21979,7 +21978,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -21994,7 +21993,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22009,7 +22008,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22024,7 +22023,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22039,7 +22038,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22054,7 +22053,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22069,7 +22068,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22084,7 +22083,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22099,7 +22098,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22114,7 +22113,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22129,7 +22128,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22144,7 +22143,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22159,7 +22158,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22174,7 +22173,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22189,7 +22188,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22204,7 +22203,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LINK</v>
@@ -22219,7 +22218,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="str">
         <f t="shared" ref="A771:A834" si="12">HYPERLINK(_xlfn.CONCAT("https://jira.jnj.com/browse/",C771),"LINK")</f>
         <v>LINK</v>
@@ -22234,7 +22233,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22249,7 +22248,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22264,7 +22263,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22279,7 +22278,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22294,7 +22293,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22309,7 +22308,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22324,7 +22323,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22339,7 +22338,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22354,7 +22353,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22369,7 +22368,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22384,7 +22383,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22399,7 +22398,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22414,7 +22413,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22429,7 +22428,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22444,7 +22443,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22459,7 +22458,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22474,7 +22473,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22489,7 +22488,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22504,7 +22503,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22519,7 +22518,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22534,7 +22533,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22549,7 +22548,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22564,7 +22563,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22579,7 +22578,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22594,7 +22593,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22609,7 +22608,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22624,7 +22623,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22639,7 +22638,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22654,7 +22653,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22669,7 +22668,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22684,7 +22683,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22699,7 +22698,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22714,7 +22713,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22729,7 +22728,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22744,7 +22743,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22759,7 +22758,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22774,7 +22773,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22789,7 +22788,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22804,7 +22803,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22819,7 +22818,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22834,7 +22833,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22849,7 +22848,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22864,7 +22863,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22879,7 +22878,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22894,7 +22893,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22909,7 +22908,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22924,7 +22923,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22939,7 +22938,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22954,7 +22953,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22969,7 +22968,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22984,7 +22983,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -22999,7 +22998,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -23014,7 +23013,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -23029,7 +23028,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -23044,7 +23043,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -23059,7 +23058,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -23074,7 +23073,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -23089,7 +23088,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -23104,7 +23103,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -23119,7 +23118,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -23134,7 +23133,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -23149,7 +23148,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="833" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -23164,7 +23163,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="834" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LINK</v>
@@ -23179,7 +23178,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="835" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="str">
         <f t="shared" ref="A835:A898" si="13">HYPERLINK(_xlfn.CONCAT("https://jira.jnj.com/browse/",C835),"LINK")</f>
         <v>LINK</v>
@@ -23194,7 +23193,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="836" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23209,7 +23208,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="837" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23224,7 +23223,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="838" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23239,7 +23238,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23254,7 +23253,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="840" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23269,7 +23268,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="841" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23284,7 +23283,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23299,7 +23298,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="843" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23314,7 +23313,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="844" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23329,7 +23328,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23344,7 +23343,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="846" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23359,7 +23358,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="847" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23374,7 +23373,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="848" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23389,7 +23388,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="849" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23404,7 +23403,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="850" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23419,7 +23418,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="851" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23434,7 +23433,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="852" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23449,7 +23448,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="853" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23464,7 +23463,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="854" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23479,7 +23478,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="855" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23494,7 +23493,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="856" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23509,7 +23508,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="857" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23524,7 +23523,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="858" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23539,7 +23538,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="859" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23554,7 +23553,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="860" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23569,7 +23568,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="861" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23584,7 +23583,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23599,7 +23598,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="863" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23614,7 +23613,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="864" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23629,7 +23628,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="865" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23644,7 +23643,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="866" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23659,7 +23658,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="867" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23674,7 +23673,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="868" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23689,7 +23688,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="869" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23704,7 +23703,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23719,7 +23718,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="871" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23734,7 +23733,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="872" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23749,7 +23748,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="873" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23764,7 +23763,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="874" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23779,7 +23778,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="875" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23794,7 +23793,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23809,7 +23808,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="877" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23824,7 +23823,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="878" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23839,7 +23838,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="879" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23854,7 +23853,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="880" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23869,7 +23868,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="881" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23884,7 +23883,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="882" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23899,7 +23898,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="883" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23914,7 +23913,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="884" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23929,7 +23928,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="885" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23944,7 +23943,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="886" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23959,7 +23958,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="887" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23974,7 +23973,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="888" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -23989,7 +23988,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="889" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -24004,7 +24003,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="890" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -24019,7 +24018,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="891" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -24034,7 +24033,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="892" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -24049,7 +24048,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="893" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -24064,7 +24063,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="894" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -24079,7 +24078,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="895" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -24094,7 +24093,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="896" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -24109,7 +24108,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="897" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -24124,7 +24123,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="898" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="str">
         <f t="shared" si="13"/>
         <v>LINK</v>
@@ -24139,7 +24138,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="899" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="str">
         <f t="shared" ref="A899:A937" si="14">HYPERLINK(_xlfn.CONCAT("https://jira.jnj.com/browse/",C899),"LINK")</f>
         <v>LINK</v>
@@ -24154,7 +24153,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="900" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24169,7 +24168,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="901" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24184,7 +24183,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="902" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24199,7 +24198,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="903" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24214,7 +24213,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="904" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24229,7 +24228,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="905" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24244,7 +24243,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="906" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24259,7 +24258,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="907" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24274,7 +24273,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="908" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24289,7 +24288,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="909" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24304,7 +24303,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="910" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24319,7 +24318,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="911" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24334,7 +24333,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="912" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24349,7 +24348,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="913" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24364,7 +24363,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="914" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24379,7 +24378,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="915" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24394,7 +24393,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="916" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24409,7 +24408,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="917" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24424,7 +24423,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="918" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24439,7 +24438,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="919" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24454,7 +24453,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="920" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24469,7 +24468,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="921" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24484,7 +24483,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="922" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24499,7 +24498,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="923" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24514,7 +24513,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="924" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24529,7 +24528,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="925" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24544,7 +24543,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="926" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24559,7 +24558,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="927" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24574,7 +24573,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="928" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24589,7 +24588,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="929" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24604,7 +24603,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="930" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24619,7 +24618,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="931" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24634,7 +24633,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="932" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24649,7 +24648,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="933" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24664,7 +24663,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="934" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24679,7 +24678,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="935" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24694,7 +24693,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="936" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24709,7 +24708,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="937" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="str">
         <f t="shared" si="14"/>
         <v>LINK</v>
@@ -24749,13 +24748,7 @@
       <c r="B1051" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E937" xr:uid="{75B5C44C-2650-4128-8BE4-940306CD319B}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E937" xr:uid="{75B5C44C-2650-4128-8BE4-940306CD319B}"/>
   <conditionalFormatting sqref="B938:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
